--- a/01_Linear/Nachtfliegen_07_Networks.xlsx
+++ b/01_Linear/Nachtfliegen_07_Networks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2E47A4-E75A-A548-BD1D-A50A1F9FD72C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0168256E-34A6-2A46-9A59-18D4F008F9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="31900" windowHeight="20540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9080" yWindow="460" windowWidth="22560" windowHeight="18540" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -18,47 +18,195 @@
     <sheet name="Networks" sheetId="3" r:id="rId3"/>
     <sheet name="Networks b" sheetId="11" r:id="rId4"/>
     <sheet name="Networks SUMIF" sheetId="10" r:id="rId5"/>
+    <sheet name="Networks route limits" sheetId="12" r:id="rId6"/>
+    <sheet name="Networks MaxFlow" sheetId="13" r:id="rId7"/>
+    <sheet name="ShortestPath" sheetId="14" r:id="rId8"/>
+    <sheet name="ShortestPath_2" sheetId="16" r:id="rId9"/>
+    <sheet name="ShortestPath_3" sheetId="15" r:id="rId10"/>
+    <sheet name="Sortest_Path_ACU" sheetId="17" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="capacities">'Networks MaxFlow'!$F$3:$F$11</definedName>
     <definedName name="cities" localSheetId="3">'Networks b'!$B$4:$C$9</definedName>
+    <definedName name="cities" localSheetId="5">'Networks route limits'!$B$4:$C$9</definedName>
     <definedName name="cities" localSheetId="4">'Networks SUMIF'!$B$4:$C$9</definedName>
     <definedName name="cities">Networks!$B$4:$C$9</definedName>
+    <definedName name="from" localSheetId="5">'Networks route limits'!$B$4:$B$9</definedName>
     <definedName name="from">'Networks b'!$B$4:$B$9</definedName>
+    <definedName name="from_maxflow">'Networks MaxFlow'!$B$3:$B$11</definedName>
+    <definedName name="p3_from" localSheetId="7">ShortestPath!$B$3:$B$17</definedName>
+    <definedName name="p3_from" localSheetId="9">ShortestPath_3!$B$3:$B$16</definedName>
+    <definedName name="p3_max" localSheetId="7">ShortestPath!$E$3:$E$17</definedName>
+    <definedName name="p3_max" localSheetId="9">ShortestPath_3!$E$3:$E$16</definedName>
+    <definedName name="p3_ship" localSheetId="7">ShortestPath!$D$2:$D$17</definedName>
+    <definedName name="p3_ship" localSheetId="9">ShortestPath_3!$D$3:$D$16</definedName>
+    <definedName name="p3_to" localSheetId="7">ShortestPath!$C$3:$C$17</definedName>
+    <definedName name="p3_to" localSheetId="9">ShortestPath_3!$C$3:$C$16</definedName>
     <definedName name="quads">#REF!</definedName>
+    <definedName name="ship">'Networks MaxFlow'!$D$3:$D$11</definedName>
+    <definedName name="shipping" localSheetId="5">'Networks route limits'!$D$4:$D$9</definedName>
     <definedName name="shipping">'Networks b'!$D$4:$D$9</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Networks b'!$D$4:$D$9</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Networks MaxFlow'!$D$3:$D$11</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Networks route limits'!$D$4:$D$9</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">ShortestPath_2!$D$3:$D$6</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">ShortestPath_3!$D$3:$D$16</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Networks b'!$J$4:$J$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Networks MaxFlow'!$K$4:$K$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Networks route limits'!$D$5:$D$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">ShortestPath_2!$K$3:$K$6</definedName>
+    <definedName name="solver_lhs1" localSheetId="9" hidden="1">ShortestPath_3!$K$3:$K$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Networks MaxFlow'!$D$3:$D$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Networks route limits'!$J$4:$J$8</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_ntri" hidden="1">1000</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Networks b'!$D$1</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Networks MaxFlow'!$K$3</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Networks route limits'!$D$1</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">ShortestPath_2!$D$8</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">ShortestPath_3!$D$18</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">'Networks b'!$L$4:$L$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">'Networks MaxFlow'!$M$4:$M$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'Networks route limits'!$F$5:$F$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">ShortestPath_2!$M$3:$M$6</definedName>
+    <definedName name="solver_rhs1" localSheetId="9" hidden="1">ShortestPath_3!$M$3:$M$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">capacities</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Networks route limits'!$L$4:$L$8</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_rsmp" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_seed" hidden="1">0</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="sp_distance">ShortestPath_2!$E$3:$E$6</definedName>
+    <definedName name="sp_from">ShortestPath_2!$B$3:$B$6</definedName>
+    <definedName name="sp_ship">ShortestPath_2!$D$3:$D$6</definedName>
+    <definedName name="sp_to">ShortestPath_2!$C$3:$C$6</definedName>
+    <definedName name="to" localSheetId="5">'Networks route limits'!$C$4:$C$9</definedName>
     <definedName name="to">'Networks b'!$C$4:$C$9</definedName>
+    <definedName name="to_maxflow">'Networks MaxFlow'!$C$3:$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="74">
   <si>
     <t>Challenge:</t>
   </si>
@@ -208,6 +356,96 @@
   </si>
   <si>
     <t>Cities</t>
+  </si>
+  <si>
+    <t>=SUMIF(to,G4,shipping)</t>
+  </si>
+  <si>
+    <t>Limits</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>=SUMIF(to_maxflow,H3,ship)</t>
+  </si>
+  <si>
+    <t>=SUMIF(from_maxflow,H3,ship)</t>
+  </si>
+  <si>
+    <t>Shortest Path</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From </t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>start d g end</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -218,7 +456,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,7 +490,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,13 +521,95 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -298,7 +618,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,6 +642,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1629,6 +1992,1882 @@
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>754859</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>367229</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137711</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5ADD328-16FE-3E41-8AF9-47CED7B10619}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219159" y="544111"/>
+          <a:ext cx="2126970" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>749759</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>10201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>362129</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30603</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E34332F-10EE-1A48-BC97-2423A2428E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7214059" y="619801"/>
+          <a:ext cx="450570" cy="223602"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>703855</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>20402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>357028</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69775C3F-4AEE-E148-A346-E50BA12000AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8844555" y="630002"/>
+          <a:ext cx="491373" cy="259304"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>698755</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>382530</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>117310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84EE854-E076-C642-856C-BE174503B8CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7163055" y="1026201"/>
+          <a:ext cx="521975" cy="310309"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>708956</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>168313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>377430</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71406</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABDB87D-F7F6-8443-87D1-3B6EBC7D884A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8849656" y="981113"/>
+          <a:ext cx="506674" cy="309493"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>739558</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>392731</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153012</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A8ACEF-D9EC-A044-86B5-EA1C19FC5E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7203858" y="1372212"/>
+          <a:ext cx="2167773" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>566594</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F911A18-419C-494D-8ECA-EDF34AD73D43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="822614" y="4040909"/>
+          <a:ext cx="4787900" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88674CD3-EA2E-5245-807C-B5F32D4C7AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="609600"/>
+          <a:ext cx="5654675" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Title 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFF4C24-3D99-684C-8989-66E678E60CAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noGrp="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7429500" y="838200"/>
+          <a:ext cx="8229600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" anchor="ctr" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr algn="ctr" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" charset="0"/>
+              <a:cs typeface="ＭＳ Ｐゴシック" charset="0"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr algn="ctr" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="1" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" charset="0"/>
+              <a:cs typeface="ＭＳ Ｐゴシック" charset="0"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr algn="ctr" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="1" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" charset="0"/>
+              <a:cs typeface="ＭＳ Ｐゴシック" charset="0"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr algn="ctr" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="1" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" charset="0"/>
+              <a:cs typeface="ＭＳ Ｐゴシック" charset="0"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr algn="ctr" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="1" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" charset="0"/>
+              <a:cs typeface="ＭＳ Ｐゴシック" charset="0"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="1" charset="0"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="1" charset="0"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="1" charset="0"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="1" charset="0"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="en-US">
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C06B449-5DDA-DB4A-8E1A-15FFFFB7B9DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8716963" y="609600"/>
+          <a:ext cx="5654675" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E843105-5C7B-3747-B435-E3CB18A017E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10883900" y="4876800"/>
+          <a:ext cx="889000" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CF5F1E-2843-3E4D-B1E6-7F92B8E56D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11828463" y="5867400"/>
+          <a:ext cx="863600" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>812801</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>201614</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A96A1A-171D-9C41-BF1F-291C85BC49DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="11544301" y="5924550"/>
+          <a:ext cx="214313" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A34C11-85C8-A54A-9E14-2D8BA0A40192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10706100" y="5715000"/>
+          <a:ext cx="1066800" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>201614</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B141A26-854C-A64A-88C4-C77759D8518E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="11010901" y="5924550"/>
+          <a:ext cx="747713" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>249238</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3A8699F-2E41-804C-9766-7CAD0D38C9E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="10155238" y="4876800"/>
+          <a:ext cx="703262" cy="179388"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>525463</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA8F65B-0F85-FC47-9B22-D2683AF615D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10431463" y="4038600"/>
+          <a:ext cx="382587" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>249238</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7CBF5C-67D1-A146-9BF9-88746FB172B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9512300" y="4637088"/>
+          <a:ext cx="642938" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>134938</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F50E2C-DCC8-CD4D-BC3A-71C95659CE8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9215438" y="3733800"/>
+          <a:ext cx="250825" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>134938</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F5BF26-4FDE-724A-8348-BCD9F3F953BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9215438" y="3733800"/>
+          <a:ext cx="728662" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02858D0-1ADF-954F-836C-28768EC7F44E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10890250" y="4876800"/>
+          <a:ext cx="552450" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86D613C-C4C4-A147-8EDA-F550D3DF3043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="11122026" y="3733800"/>
+          <a:ext cx="1412875" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB58A487-BC3D-8D41-B028-7BFFE95BF54F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11430000" y="2209800"/>
+          <a:ext cx="1104900" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>795338</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>795338</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA877033-54ED-6348-A34A-FC1CCED43647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9050338" y="2693988"/>
+          <a:ext cx="0" cy="887412"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7ED374A-0CFF-7343-8A3E-C47ECDDA1235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="9513888" y="5791200"/>
+          <a:ext cx="430212" cy="277813"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1058C76B-0AD0-8849-B611-711840ED23E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9953625" y="5791200"/>
+          <a:ext cx="0" cy="430213"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>803276</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8BBDAEE-1043-964A-9F25-9E8A4DD6AD01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="9883776" y="5715000"/>
+          <a:ext cx="822325" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>169863</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>173038</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF73448D-CB5B-B84F-BA80-CB01AB2E902C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="10901363" y="4343400"/>
+          <a:ext cx="220662" cy="503238"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26F9E19-1FF0-3F4D-B639-7A1D61E43C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="9953626" y="4876800"/>
+          <a:ext cx="936625" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F1D2D6-A8EF-7845-B329-CECF19352463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="9918700" y="5056188"/>
+          <a:ext cx="153988" cy="658812"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298451</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF9648F-D8A0-8A49-961E-B7E521CD840C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="11855451" y="3790950"/>
+          <a:ext cx="727075" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1939,9 +4178,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +4188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +4196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1965,7 +4204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1973,7 +4212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1981,27 +4220,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2012,7 +4251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -2020,6 +4259,501 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2A9E16-05CB-8E43-BAC5-8DC90F15E7EB}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
+        <v>20</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(D3&gt;=E3, "Bind","")</f>
+        <v/>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I10" si="0">SUMIF(p3_to,H3,p3_ship)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="1">SUMIF(p3_from,H3,p3_ship)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="22">
+        <f>J3-I3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <v>15</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F6" si="2">IF(D4&gt;=E4, "Bind","")</f>
+        <v/>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="3">J4-I4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>12</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>18</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>9</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(D8&gt;=E8, "Bind","")</f>
+        <v/>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>17</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(D9&gt;=E9, "Bind","")</f>
+        <v/>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>15</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(D11&gt;=E11, "Bind","")</f>
+        <v/>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>15</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(D12&gt;=E12, "Bind","")</f>
+        <v/>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>14</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(D15&gt;=E15, "Bind","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>14</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(D16&gt;=E16, "Bind","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="24">
+        <f>SUMPRODUCT(p3_ship,p3_max)</f>
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B6E4F6-7289-BA46-AC77-460F8C5B0961}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2031,7 +4765,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
@@ -2040,7 +4774,7 @@
     <col min="5" max="5" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2048,12 +4782,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2076,7 +4810,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
@@ -2085,12 +4819,12 @@
     <col min="9" max="9" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2104,7 +4838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
@@ -2112,7 +4846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
@@ -2123,7 +4857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2131,7 +4865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -2145,7 +4879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -2153,7 +4887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2161,7 +4895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11" s="6">
         <f>COUNTA(cities)</f>
         <v>12</v>
@@ -2173,7 +4907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="B12" s="6">
         <v>5</v>
       </c>
@@ -2184,7 +4918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="B13" s="6">
         <v>5</v>
       </c>
@@ -2192,7 +4926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14" s="6">
         <f>COUNTA(B4:B9)</f>
         <v>6</v>
@@ -2211,11 +4945,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EEB0A2-B5AA-3242-9440-A3EA94530F6B}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
@@ -2230,19 +4964,22 @@
     <col min="12" max="12" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="11">
         <f>SUMPRODUCT(D4:D9,E4:E9)</f>
-        <v>1740</v>
+        <v>1350</v>
       </c>
       <c r="E1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2275,7 +5012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
@@ -2283,7 +5020,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8">
         <v>10</v>
@@ -2310,7 +5047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
@@ -2318,10 +5055,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -2348,7 +5085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2356,21 +5093,21 @@
         <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E6" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="12">
         <f>SUMIF(to,G6,shipping)</f>
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="I6" s="12">
         <f>SUMIF(from,G6,shipping)</f>
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
@@ -2383,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -2391,10 +5128,10 @@
         <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E7" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -2424,7 +5161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -2432,10 +5169,10 @@
         <v>20</v>
       </c>
       <c r="D8" s="2">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E8" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -2459,7 +5196,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2467,13 +5204,13 @@
         <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="B11" s="6">
         <f>COUNTA(cities)</f>
         <v>12</v>
@@ -2485,7 +5222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="B12" s="6">
         <v>5</v>
       </c>
@@ -2496,7 +5233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="B13" s="6">
         <v>5</v>
       </c>
@@ -2504,7 +5241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="B14" s="6">
         <f>COUNTA(B4:B9)</f>
         <v>6</v>
@@ -2524,10 +5261,10 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
@@ -2543,7 +5280,7 @@
     <col min="14" max="14" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2555,7 +5292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2584,7 +5321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
@@ -2611,7 +5348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
@@ -2641,7 +5378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2668,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -2701,7 +5438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -2728,7 +5465,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2742,7 +5479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="B11" s="6">
         <f>COUNTA(cities)</f>
         <v>12</v>
@@ -2754,7 +5491,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="B12" s="6">
         <v>5</v>
       </c>
@@ -2765,7 +5502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="B13" s="6">
         <v>5</v>
       </c>
@@ -2773,7 +5510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="B14" s="6">
         <f>COUNTA(B4:B9)</f>
         <v>6</v>
@@ -2782,17 +5519,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="B16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2801,4 +5538,1143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704B834A-6AEC-2C43-89D8-FBE8DBE79C63}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="11">
+        <f>SUMPRODUCT(D4:D9,E4:E9)</f>
+        <v>1384</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="12">
+        <f>SUMIF(to,G4,shipping)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <f>SUMIF(from,G4,shipping)</f>
+        <v>50</v>
+      </c>
+      <c r="J4" s="12">
+        <f>I4-H4</f>
+        <v>50</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>46</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="12">
+        <f>SUMIF(to,G5,shipping)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <f>SUMIF(from,G5,shipping)</f>
+        <v>100</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" ref="J5:J8" si="0">I5-H5</f>
+        <v>100</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>70</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12">
+        <f>SUMIF(to,G6,shipping)</f>
+        <v>116</v>
+      </c>
+      <c r="I6" s="12">
+        <f>SUMIF(from,G6,shipping)</f>
+        <v>116</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>46</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="12">
+        <f>SUMIF(to,G7,shipping)</f>
+        <v>74</v>
+      </c>
+      <c r="I7" s="12">
+        <f>SUMIF(from,G7,shipping)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>-74</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>-74</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>70</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="12">
+        <f>SUMIF(to,G8,shipping)</f>
+        <v>76</v>
+      </c>
+      <c r="I8" s="12">
+        <f>SUMIF(from,G8,shipping)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="0"/>
+        <v>-76</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="6">
+        <f>COUNTA(cities)</f>
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="6">
+        <f>COUNTA(B4:B9)</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06816840-D88C-3B4B-B43D-403A2FAF6543}">
+  <dimension ref="B1:M13"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="G1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="15">
+        <v>50</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="16">
+        <v>50</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="0">SUMIF(to_maxflow,H3,ship)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="1">SUMIF(from_maxflow,H3,ship)</f>
+        <v>150</v>
+      </c>
+      <c r="K3" s="19">
+        <f>J3-I3</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="17">
+        <v>70</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="16">
+        <v>70</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K9" si="2">J4-I4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="17">
+        <v>30</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="16">
+        <v>40</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="17">
+        <v>50</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="16">
+        <v>60</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17">
+        <v>30</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="16">
+        <v>40</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="17">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="16">
+        <v>50</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="17">
+        <v>30</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="16">
+        <v>30</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="17">
+        <v>80</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="18">
+        <v>70</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <f>D3+D4+D5</f>
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBDDD6D-4E8F-F045-B10D-944472EF8CB4}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="11" width="5.1640625" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="14:15">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA8049A-3E99-3E4C-A03C-DC69FB25BFDA}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(D5&gt;=E5, "Bind","")</f>
+        <v/>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="1">
+        <f>SUMIF(sp_to,H3,sp_ship)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f>SUMIF(sp_from,H3,sp_ship)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="22">
+        <f>J3-I3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="21">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>4</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(D6&gt;=E6, "Bind","")</f>
+        <v>Bind</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="1">
+        <f>SUMIF(sp_to,H4,sp_ship)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f>SUMIF(sp_from,H4,sp_ship)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <f t="shared" ref="K4:K6" si="0">J4-I4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(D3&gt;=E3, "Bind","")</f>
+        <v/>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="1">
+        <f>SUMIF(sp_to,H5,sp_ship)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <f>SUMIF(sp_from,H5,sp_ship)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(D4&gt;=E4, "Bind","")</f>
+        <v/>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="1">
+        <f>SUMIF(sp_to,H6,sp_ship)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <f>SUMIF(sp_from,H6,sp_ship)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="21">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="19">
+        <f>SUMPRODUCT(D3:D6,E3:E6)</f>
+        <v>5</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="14:15">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_Linear/Nachtfliegen_07_Networks.xlsx
+++ b/01_Linear/Nachtfliegen_07_Networks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0168256E-34A6-2A46-9A59-18D4F008F9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0E47DC-A3A8-854A-A77F-D553369A5225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9080" yWindow="460" windowWidth="22560" windowHeight="18540" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,7 @@
     <definedName name="to">'Networks b'!$C$4:$C$9</definedName>
     <definedName name="to_maxflow">'Networks MaxFlow'!$C$3:$C$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4267,7 +4267,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
